--- a/src/test/resources/testdata/Practice Form Test Data.xlsx
+++ b/src/test/resources/testdata/Practice Form Test Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaroslav\Desktop\QA-Guru\demo_qa_project\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaroslav\Desktop\QA-Guru\Group11\03\StudentFormRegistration\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF47052-E325-481B-AA65-94808B91116E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E9E5C8-0CCB-451C-9BD2-74A7667BA65F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="6050" windowWidth="16830" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6310" yWindow="5570" windowWidth="16830" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>case</t>
   </si>
@@ -102,42 +102,9 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Case4</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
     <t>lobster</t>
   </si>
   <si>
-    <t>Case5</t>
-  </si>
-  <si>
-    <t>124 Point S</t>
-  </si>
-  <si>
-    <t>Case6</t>
-  </si>
-  <si>
-    <t>125 Point S</t>
-  </si>
-  <si>
-    <t>Egor</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>Vasya</t>
-  </si>
-  <si>
-    <t>Lysyi</t>
-  </si>
-  <si>
     <t>Subjects</t>
   </si>
   <si>
@@ -150,12 +117,6 @@
     <t>Maths</t>
   </si>
   <si>
-    <t>Computer Science,Economics</t>
-  </si>
-  <si>
-    <t>Computer Science,Economics,Maths,English</t>
-  </si>
-  <si>
     <t>Music,Sports</t>
   </si>
   <si>
@@ -163,12 +124,6 @@
   </si>
   <si>
     <t>Music</t>
-  </si>
-  <si>
-    <t>Chemistry,Maths</t>
-  </si>
-  <si>
-    <t>Sports,Reading,Music</t>
   </si>
 </sst>
 </file>
@@ -496,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +489,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>14</v>
@@ -554,13 +509,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -569,16 +524,16 @@
         <v>20</v>
       </c>
       <c r="F2" s="1">
-        <v>32966</v>
+        <v>34438</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>4444444444</v>
+        <v>1111111111</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -592,31 +547,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>34438</v>
+        <v>32966</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>1111111111</v>
+        <v>2222222222</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -630,31 +585,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>32966</v>
+        <v>30336</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4">
-        <v>2222222222</v>
+        <v>3333333333</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
         <v>22</v>
@@ -663,120 +618,6 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1">
-        <v>30336</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>3333333333</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>34438</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6">
-        <v>5555555555</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1">
-        <v>30336</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7">
-        <v>6666666666</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" t="s">
         <v>24</v>
       </c>
     </row>
